--- a/CALCULO DE CAJA DE CAJA REDUCTORAS.xlsx
+++ b/CALCULO DE CAJA DE CAJA REDUCTORAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desktop\proyecto caja reductora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isai\Documents\GitHub\caja-reductora-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="CARACTERISTICAS CAJA REDUCTORA" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SEGUNDO TREN" sheetId="3" r:id="rId3"/>
     <sheet name="TERCER TREN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1567,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
